--- a/Simulation_Trade/Basis/trace_minute_program/Trade.xlsx
+++ b/Simulation_Trade/Basis/trace_minute_program/Trade.xlsx
@@ -14,65 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU1804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RU1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CU1804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JM1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,9 +121,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,211 +427,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>43157.375</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1">
+        <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1">
         <f>638.8*22/31+639*1/31+640.8*8/31</f>
         <v>639.32258064516122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>43157.375</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>43157.375</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>43157.375</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="C5" s="1">
+        <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1">
         <f>5840*50/70+5836*20/70</f>
         <v>5838.8571428571431</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>43157.375</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
         <f>53440*7/8+53480*1/8</f>
         <v>53445</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>43157.375</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-47</v>
       </c>
       <c r="D7" s="1">
-        <v>-47</v>
-      </c>
-      <c r="E7" s="1">
         <f>5280*19/47+5272*28/47</f>
         <v>5275.2340425531911</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>43157.375</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>43157.375</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4032.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>43157.375</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>-22</v>
-      </c>
-      <c r="E8" s="1">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-31</v>
-      </c>
-      <c r="E9" s="1">
-        <f>4033*19/31+4032*12/31</f>
-        <v>4032.6129032258068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="1">
+        <v>-5</v>
       </c>
       <c r="D10" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="1">
         <f>2273.5*2/5+2274.5*3/5</f>
         <v>2274.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>43157</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>43157.375</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-14</v>
       </c>
       <c r="D11" s="1">
-        <v>-14</v>
-      </c>
-      <c r="E11" s="1">
         <f>1420.5*3/14+1422*11/14</f>
         <v>1421.6785714285713</v>
       </c>

--- a/Simulation_Trade/Basis/trace_minute_program/Trade.xlsx
+++ b/Simulation_Trade/Basis/trace_minute_program/Trade.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="D9" s="1">
         <v>4032.57</v>
